--- a/ute/ui_config_patch/AB281FA/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/AB281FA/defaultLanguage/input.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -6730,7 +6730,7 @@
     <t>STR_SOOTHING</t>
   </si>
   <si>
-    <t>Moderate</t>
+    <t>Medium</t>
   </si>
   <si>
     <t>Умеренный</t>
@@ -10790,11 +10790,11 @@
   <dimension ref="A1:BA659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AX252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AX218" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E258" sqref="E258"/>
+      <selection pane="bottomRight" activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
